--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-15-filter-with-logic-equals.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-15-filter-with-logic-equals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FCB1494-CD16-4041-AFA6-263CA641C906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B0834A-F4E7-4531-9D36-2B40DF396E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="FILTER" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t>Ming Sia</t>
   </si>
@@ -218,13 +218,16 @@
   </si>
   <si>
     <t>Deb Ashby</t>
+  </si>
+  <si>
+    <t>"=" = (Both or Either) is true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +244,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -278,17 +288,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -313,9 +327,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -330,13 +341,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9D70E5-1617-4FBE-B025-B4DE09B4C8E9}" name="Students" displayName="Students" ref="A3:D42" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9D70E5-1617-4FBE-B025-B4DE09B4C8E9}" name="Students" displayName="Students" ref="A3:D42" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A3:D42" xr:uid="{EF9D70E5-1617-4FBE-B025-B4DE09B4C8E9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{55A7AD0E-2A9E-4853-ABEB-0152E07CF665}" name="Student"/>
     <tableColumn id="2" xr3:uid="{C4FCB9FB-6614-4C14-A111-AAFE9E801E26}" name="Exam"/>
     <tableColumn id="3" xr3:uid="{3449A2A2-5643-4699-9219-9AB90B3D6122}" name="Grade"/>
-    <tableColumn id="4" xr3:uid="{3B9A996B-5DC0-48EF-9879-B2464B933564}" name="Date" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3B9A996B-5DC0-48EF-9879-B2464B933564}" name="Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -600,34 +611,34 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="7" max="7" width="7.19921875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="13.875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.09765625" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -665,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -704,7 +715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -739,7 +750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -762,7 +773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -785,7 +796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -808,7 +819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -825,7 +836,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -842,7 +853,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -862,7 +873,7 @@
         <v>44570</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -882,7 +893,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -899,7 +910,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -916,7 +927,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -933,7 +944,7 @@
         <v>44574</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -950,7 +961,7 @@
         <v>44575</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -967,7 +978,7 @@
         <v>44576</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -984,7 +995,7 @@
         <v>44577</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1012,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +1029,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1035,7 +1046,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1052,7 +1063,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1069,7 +1080,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1086,7 +1097,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1103,7 +1114,7 @@
         <v>44584</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="33" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1116,11 +1127,14 @@
       <c r="D26" s="2">
         <v>44584</v>
       </c>
+      <c r="F26" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="N26" s="2">
         <v>44585</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1137,7 +1151,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1154,7 +1168,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1171,7 +1185,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1188,7 +1202,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1205,7 +1219,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1239,7 +1253,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1256,7 +1270,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1273,7 +1287,7 @@
         <v>44594</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1290,7 +1304,7 @@
         <v>44595</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1307,7 +1321,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1324,7 +1338,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1341,7 +1355,7 @@
         <v>44598</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1358,7 +1372,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1372,7 +1386,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
